--- a/BackTest/2020-01-14 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-14 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18507.1224</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-21355.4748</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-20787.1307</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-20802.6172</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-19435.2806</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-20197.3326</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20246.0945</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19278.9408</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20002.5386</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-20280.4438</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-19317.8822</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19282.0919</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-20240.3455</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-23556.3304</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-20111.5426</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23695.0172</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-21123.2235</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22668.6252</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-18299.0812</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-17692.6188</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-20768.1751</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-23279.1077</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-22666.6849</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-19395.3046</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-19945.3947</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-20203.7696</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-20060.0387</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-20905.692</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-20798.3086</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-21834.8688</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-21849.7851</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-21656.0508</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-22134.5054</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-22114.5054</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-25930.6303</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-27872.8373</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-28451.1973</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-28963.2861</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-27781.1445</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-25998.0807</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-27765.69910000001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-26838.94880000001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-24526.2576</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-23782.30780000001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-25465.61900000001</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-25301.50900000001</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-27390.113</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-26491.0426</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-28905.5193</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-28827.9893</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-28608.7915</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-28249.9502</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-28063.2516</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-30789.4315</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-32202.1738</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-31786.0757</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-31654.45570000001</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-31497.19570000001</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-31888.35280000001</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-31885.54280000001</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-33165.38740000001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-33450.81480000001</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-33239.0148</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-32982.70480000001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-31942.11300000001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-30662.88140000001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-33974.50030000001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-33222.72860000001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-33053.93890000001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-32194.63970000001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-31793.25460000001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-33209.21490000001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-32501.16800000001</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-32179.808</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-32951.61610000001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-33538.17710000001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-33369.7971</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-33330.7171</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-33254.3471</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-36658.4238</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-38386.6725</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-38118.2091</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-37372.8106</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-37765.68079999999</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-36955.82969999999</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-37558.4658</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-30988.5491</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-31121.8487</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-33705.9708</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-35134.9414</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-38879.19089999999</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-39255.1577</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-38831.90029999999</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-39156.59249999999</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-38832.05419999999</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-38548.99689999999</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-39229.99089999999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-38841.49199999999</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49786.29019999999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-52247.39969999999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-49934.87939999999</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-54393.63899999999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-50793.67049999999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-48633.74909999999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-51664.21999999999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-50978.81989999999</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-52271.00309999999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-60950.4273</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-58043.8088</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-56378.0769</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-58050.2314</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-55815.1296</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-55463.8737</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-55587.81340000001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-58125.04570000001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-58125.04570000001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-60237.57380000001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-60237.57380000001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-57212.73500000002</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-50525.57840000001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-50962.8723</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-67572.30470000001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-75537.59820000001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-66818.57590000001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-69231.06460000001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-81084.60300000002</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-81149.06300000002</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-232585.1727</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-221861.8284</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-230167.2031</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-223067.6479</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-235115.6408000001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-242553.9620000001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-252610.2597000001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-246969.6859</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-238774.0277</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-247116.137</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-257364.6946</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-250139.6344</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-258328.8017</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-260434.8252000001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-266964.7000000001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-266964.7000000001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-266709.7792</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-280073.8192</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-280073.8192</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-286118.0753</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-295568.2888</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-302473.7446</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-299428.9321</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-291567.4553</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-291567.4553</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-291567.4553</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-291567.4553</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-275606.5925</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-275606.5925</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-305722.0547</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-296536.4354000001</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-289036.8106000001</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-295693.6171000001</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-295693.6171000001</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-273301.4394000001</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-267598.4837000001</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-259870.2671000001</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -22264,11 +22264,17 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>221</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22303,17 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>221</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22342,17 @@
         <v>-503637.0852897899</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>221</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22381,17 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>222.3</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +22420,17 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +22459,17 @@
         <v>-521878.2408897899</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +22498,17 @@
         <v>-510816.5910897899</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>219.9</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +22537,17 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>220.1</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +22576,17 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>219.8</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +22615,17 @@
         <v>-511798.0507897899</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>219.8</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +22654,17 @@
         <v>-517558.9980897899</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>221</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22627,11 +22693,17 @@
         <v>-527325.3816897899</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +22732,7 @@
         <v>-519167.3137897899</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>219.7</v>
@@ -22668,7 +22740,7 @@
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -22699,7 +22771,7 @@
         <v>-508414.6109897899</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>220</v>
@@ -22738,7 +22810,7 @@
         <v>-503760.2542897899</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>220.1</v>
@@ -22777,7 +22849,7 @@
         <v>-511717.28758979</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>220.2</v>
@@ -22816,7 +22888,7 @@
         <v>-503355.8200897899</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>219.9</v>
@@ -22855,7 +22927,7 @@
         <v>-512123.4950897899</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>220.9</v>
@@ -22894,7 +22966,7 @@
         <v>-516660.1764897899</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>220.4</v>
@@ -22933,7 +23005,7 @@
         <v>-499496.7967897899</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>220.3</v>
@@ -22972,7 +23044,7 @@
         <v>-492711.6536897899</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>221</v>
@@ -23011,7 +23083,7 @@
         <v>-502143.3986897899</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>221.2</v>
@@ -23050,7 +23122,7 @@
         <v>-494452.2210897899</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>221</v>
@@ -23089,7 +23161,7 @@
         <v>-485808.6175897899</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>221.3</v>
@@ -23128,7 +23200,7 @@
         <v>-492767.1330897899</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>221.7</v>
@@ -23167,9 +23239,11 @@
         <v>-484071.6195897899</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>221</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23204,9 +23278,11 @@
         <v>-497545.6907897899</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>222.5</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23241,9 +23317,11 @@
         <v>-485353.8941897899</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>222</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23426,7 +23504,7 @@
         <v>-494563.2025897899</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23463,7 +23541,7 @@
         <v>-504678.2158897899</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23759,7 +23837,7 @@
         <v>-509124.5098897899</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23796,7 +23874,7 @@
         <v>-519306.1151897899</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23907,7 +23985,7 @@
         <v>-508943.8953897899</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -30900,9 +30978,11 @@
         <v>-502480.4857779997</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>225.2</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -37375,7 +37455,7 @@
         <v>-419114.9491779997</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37412,7 +37492,7 @@
         <v>-410597.3752779997</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37523,7 +37603,7 @@
         <v>-418724.2164779997</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37560,7 +37640,7 @@
         <v>-409017.5698779997</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37671,7 +37751,7 @@
         <v>-414753.3203779997</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37708,7 +37788,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37745,7 +37825,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37782,7 +37862,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37819,7 +37899,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37856,7 +37936,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37893,7 +37973,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37967,7 +38047,7 @@
         <v>-422363.1352779997</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -37982,6 +38062,6 @@
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-14 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18507.1224</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-21355.4748</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-20787.1307</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-20802.6172</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-19435.2806</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-20197.3326</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20246.0945</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19278.9408</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-20280.4438</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-19317.8822</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19282.0919</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-20240.3455</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-23556.3304</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-20111.5426</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23695.0172</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-21123.2235</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22668.6252</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-18299.0812</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-17692.6188</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-20768.1751</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-23279.1077</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-22666.6849</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-21849.7851</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-21656.0508</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-22134.5054</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-22114.5054</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-27781.1445</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-25998.0807</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-27765.69910000001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-26838.94880000001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-24526.2576</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-23782.30780000001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-25465.61900000001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-25301.50900000001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-27390.113</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-28249.9502</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-28063.2516</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-32202.1738</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-31786.0757</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-31654.45570000001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-31497.19570000001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-31888.35280000001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-31885.54280000001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-33165.38740000001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-33450.81480000001</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-33239.0148</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-32982.70480000001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-31942.11300000001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-30662.88140000001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-33974.50030000001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-39156.59249999999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-38832.05419999999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-38548.99689999999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-39229.99089999999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49786.29019999999</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-52247.39969999999</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-49934.87939999999</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-54393.63899999999</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-50793.67049999999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-48633.74909999999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-51664.21999999999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-50978.81989999999</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-52271.00309999999</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-60950.4273</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-58043.8088</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-56378.0769</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-58050.2314</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-55815.1296</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-55463.8737</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-55587.81340000001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-58125.04570000001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-58125.04570000001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-60237.57380000001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-60237.57380000001</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-58976.69150000002</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-57212.73500000002</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-57929.33480000001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-50525.57840000001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-50962.8723</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-67572.30470000001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-75537.59820000001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-66818.57590000001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-78888.60750000001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-69231.06460000001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-81084.60300000002</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-81149.06300000002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-232585.1727</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-221861.8284</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-230167.2031</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-223067.6479</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-235115.6408000001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-242553.9620000001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-252610.2597000001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-246969.6859</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-238774.0277</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-247116.137</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-257364.6946</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-250139.6344</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-258328.8017</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-260434.8252000001</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-266964.7000000001</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-266964.7000000001</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-273903.7219000001</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-266709.7792</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-280073.8192</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-280073.8192</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-286118.0753</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-295568.2888</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-302473.7446</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-292189.4987000001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-299428.9321</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -22381,11 +22381,9 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>222.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23161,11 +23159,9 @@
         <v>-485808.6175897899</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>221.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23200,11 +23196,9 @@
         <v>-492767.1330897899</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>221.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23239,11 +23233,9 @@
         <v>-484071.6195897899</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23278,11 +23270,9 @@
         <v>-497545.6907897899</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>222.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23317,11 +23307,9 @@
         <v>-485353.8941897899</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24688,18 +24676,16 @@
         <v>-427608.9722897898</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="inlineStr"/>
     </row>
     <row r="728">
@@ -24725,15 +24711,11 @@
         <v>-406476.4927897898</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24762,15 +24744,11 @@
         <v>-450777.5670897898</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24799,15 +24777,11 @@
         <v>-459678.3017897898</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24836,15 +24810,11 @@
         <v>-468512.0620897898</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24873,15 +24843,11 @@
         <v>-475781.1811897898</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24910,15 +24876,11 @@
         <v>-468818.2262897898</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24947,15 +24909,11 @@
         <v>-477950.3659897898</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24988,11 +24946,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25021,15 +24975,11 @@
         <v>-495305.9284897898</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25058,15 +25008,11 @@
         <v>-489543.8876897898</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25099,11 +25045,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25136,11 +25078,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25173,11 +25111,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25210,11 +25144,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25247,11 +25177,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25284,11 +25210,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25321,11 +25243,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25358,11 +25276,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25395,11 +25309,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25342,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25469,11 +25375,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25506,11 +25408,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25543,11 +25441,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25580,11 +25474,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25617,11 +25507,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25654,11 +25540,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25691,11 +25573,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25728,11 +25606,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25765,11 +25639,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25802,11 +25672,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25835,15 +25701,11 @@
         <v>-485549.4274897898</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25876,11 +25738,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25909,15 +25767,11 @@
         <v>-469249.6663897898</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25950,11 +25804,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25987,11 +25837,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26024,11 +25870,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26061,11 +25903,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26098,11 +25936,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26135,11 +25969,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26172,11 +26002,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26209,11 +26035,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26246,11 +26068,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26283,11 +26101,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26320,11 +26134,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26357,11 +26167,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26394,11 +26200,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26431,11 +26233,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26468,11 +26266,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26505,11 +26299,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26542,11 +26332,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26579,11 +26365,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +26398,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26431,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26690,11 +26464,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26727,11 +26497,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26764,11 +26530,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +26563,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +26596,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26629,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26662,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26949,11 +26695,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26728,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27023,11 +26761,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27060,11 +26794,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27097,11 +26827,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27134,11 +26860,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27171,11 +26893,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27208,11 +26926,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27245,11 +26959,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27282,11 +26992,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27319,11 +27025,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27356,11 +27058,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27393,11 +27091,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27430,11 +27124,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +27157,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27504,11 +27190,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27223,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27578,11 +27256,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27615,11 +27289,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27652,11 +27322,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27355,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27726,11 +27388,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27763,11 +27421,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27800,11 +27454,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27837,11 +27487,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27520,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27911,11 +27553,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27948,11 +27586,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27985,11 +27619,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28022,11 +27652,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28059,11 +27685,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28096,11 +27718,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28133,11 +27751,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28170,11 +27784,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28207,11 +27817,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28244,11 +27850,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28281,11 +27883,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28318,11 +27916,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28355,11 +27949,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28392,11 +27982,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28429,11 +28015,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28466,11 +28048,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28503,11 +28081,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28540,11 +28114,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28577,11 +28147,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28614,11 +28180,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28651,11 +28213,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28688,11 +28246,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28725,11 +28279,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28762,11 +28312,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28799,11 +28345,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28836,11 +28378,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28873,11 +28411,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28910,11 +28444,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28947,11 +28477,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28984,11 +28510,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29021,11 +28543,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29058,11 +28576,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +28609,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29132,11 +28642,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29169,11 +28675,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29206,11 +28708,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29243,11 +28741,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +28774,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29317,11 +28807,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29354,11 +28840,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29391,11 +28873,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29428,11 +28906,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +28939,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +28972,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29539,11 +29005,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29576,11 +29038,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29613,11 +29071,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29650,11 +29104,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29687,11 +29137,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29724,11 +29170,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29761,11 +29203,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29798,11 +29236,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29835,11 +29269,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29872,11 +29302,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29909,11 +29335,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29946,11 +29368,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29983,11 +29401,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30020,11 +29434,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30057,11 +29467,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30094,11 +29500,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30131,11 +29533,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30168,11 +29566,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30205,11 +29599,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30242,11 +29632,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30279,11 +29665,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +29698,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30353,11 +29731,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30390,11 +29764,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30427,11 +29797,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30464,11 +29830,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30501,11 +29863,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30538,11 +29896,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30575,11 +29929,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30612,11 +29962,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30649,11 +29995,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30686,11 +30028,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30723,11 +30061,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30760,11 +30094,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30797,11 +30127,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30834,11 +30160,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30871,11 +30193,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30908,11 +30226,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30945,11 +30259,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30978,17 +30288,11 @@
         <v>-502480.4857779997</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>225.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31021,11 +30325,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31058,11 +30358,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31095,11 +30391,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31132,11 +30424,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31169,11 +30457,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31206,11 +30490,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31243,11 +30523,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31280,11 +30556,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31317,11 +30589,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31354,11 +30622,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31391,11 +30655,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31428,11 +30688,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31465,11 +30721,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31502,11 +30754,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31539,11 +30787,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31576,11 +30820,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31613,11 +30853,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31650,11 +30886,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31687,11 +30919,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31724,11 +30952,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31761,11 +30985,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31798,11 +31018,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31835,11 +31051,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31872,11 +31084,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31909,11 +31117,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31946,11 +31150,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31983,11 +31183,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32020,11 +31216,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32057,11 +31249,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32094,11 +31282,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +31315,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32168,11 +31348,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32205,11 +31381,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32242,11 +31414,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32279,11 +31447,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32316,11 +31480,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32353,11 +31513,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32390,11 +31546,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32427,11 +31579,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32464,11 +31612,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32501,11 +31645,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32538,11 +31678,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32575,11 +31711,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32612,11 +31744,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32649,11 +31777,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32686,11 +31810,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32723,11 +31843,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32760,11 +31876,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32797,11 +31909,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32834,11 +31942,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32871,11 +31975,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32908,11 +32008,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32945,11 +32041,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32982,11 +32074,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33019,11 +32107,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33056,11 +32140,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33093,11 +32173,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33130,11 +32206,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33167,11 +32239,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33204,11 +32272,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33241,11 +32305,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33278,11 +32338,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33315,11 +32371,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33352,11 +32404,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33389,11 +32437,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33426,11 +32470,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33463,11 +32503,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33500,11 +32536,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33537,11 +32569,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33574,11 +32602,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33611,11 +32635,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33648,11 +32668,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33685,11 +32701,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33722,11 +32734,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33759,11 +32767,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33796,11 +32800,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33833,11 +32833,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33870,11 +32866,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33907,11 +32899,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33944,11 +32932,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33981,11 +32965,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34018,11 +32998,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34055,11 +33031,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34092,11 +33064,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34129,11 +33097,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34166,11 +33130,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34203,11 +33163,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34240,11 +33196,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34277,11 +33229,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34314,11 +33262,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34351,11 +33295,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34388,11 +33328,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34425,11 +33361,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34462,11 +33394,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34499,11 +33427,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34536,11 +33460,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34573,11 +33493,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34610,11 +33526,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34647,11 +33559,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34684,11 +33592,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34721,11 +33625,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34758,11 +33658,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34795,11 +33691,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34832,11 +33724,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34869,11 +33757,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34906,11 +33790,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34943,11 +33823,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34980,11 +33856,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35017,11 +33889,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35054,11 +33922,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35091,11 +33955,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35128,11 +33988,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35165,11 +34021,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35202,11 +34054,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35239,11 +34087,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35276,11 +34120,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35313,11 +34153,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35350,11 +34186,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35387,11 +34219,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35424,11 +34252,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35461,11 +34285,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35498,11 +34318,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35535,11 +34351,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35572,11 +34384,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35609,11 +34417,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35646,11 +34450,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35683,11 +34483,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35720,11 +34516,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35757,11 +34549,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35794,11 +34582,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35831,11 +34615,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35868,11 +34648,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35905,11 +34681,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35942,11 +34714,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35979,11 +34747,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36016,11 +34780,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36053,11 +34813,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36090,11 +34846,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36127,11 +34879,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36164,11 +34912,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36201,11 +34945,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36238,11 +34978,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36275,11 +35011,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36312,11 +35044,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36349,11 +35077,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36386,11 +35110,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36423,11 +35143,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36460,11 +35176,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36497,11 +35209,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36534,11 +35242,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36571,11 +35275,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36608,11 +35308,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36645,11 +35341,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36682,11 +35374,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36719,11 +35407,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36756,11 +35440,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36793,11 +35473,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36830,11 +35506,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36867,11 +35539,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36904,11 +35572,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36941,11 +35605,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36978,11 +35638,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37015,11 +35671,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37052,11 +35704,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37089,11 +35737,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37126,11 +35770,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37163,11 +35803,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37200,11 +35836,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37237,11 +35869,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37274,11 +35902,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37311,11 +35935,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37348,11 +35968,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37385,11 +36001,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37422,11 +36034,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37459,11 +36067,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37496,11 +36100,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37533,11 +36133,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37570,11 +36166,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37607,11 +36199,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37644,11 +36232,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37681,11 +36265,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37718,11 +36298,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37755,11 +36331,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37792,11 +36364,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37829,11 +36397,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37866,11 +36430,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37903,11 +36463,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37940,11 +36496,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37977,11 +36529,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38014,11 +36562,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -38051,17 +36595,13 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
       <c r="M1088" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-14 BackTest LUNA.xlsx
@@ -451,7 +451,7 @@
         <v>-20201.425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-22824.0463</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-21273.6052</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-18289.4067</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20394.1212</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-23022.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-20297.3775</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21154.824</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-19049.2902</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-20063.6258</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-22232.8169</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-19810.7545</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-21985.4921</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-19242.8851</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-21057.348</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18282.294</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20037.0973</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-21706.7307</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-20802.6172</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20754.9692</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-20197.3326</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-19846.0767</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20246.0945</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20134.4181</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20002.5386</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-21014.7361</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-20280.4438</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-19317.8822</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-18930.863</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19282.0919</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-20240.3455</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-20378.9355</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-20886.01259999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-23556.3304</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-22034.3681</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-23123.057</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-20111.5426</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23695.0172</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-21123.2235</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22668.6252</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-20818.3034</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-18299.0812</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-17692.6188</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-20768.1751</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-23279.1077</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-22666.6849</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20378.7115</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-19395.3046</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-19945.3947</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-20203.7696</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-20060.0387</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-21048.085</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-20905.692</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-20798.3086</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-21834.8688</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21499.1185</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-21849.7851</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-21656.0508</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-22134.5054</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-22114.5054</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-22249.341</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-23179.1341</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-24049.1176</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-24378.1112</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-25930.6303</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-27872.8373</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-28451.1973</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-28963.2861</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-27919.7345</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-27781.1445</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-28914.3171</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-27644.6077</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27996.5248</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-25998.0807</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-25982.5398</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-28874.7719</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-28726.4519</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-27765.69910000001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-26838.94880000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-24526.2576</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-23782.30780000001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-25465.61900000001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-25301.50900000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-27390.113</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-26636.6826</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-26491.0426</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-28905.5193</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-28827.9893</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-28608.7915</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-28249.9502</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-28063.2516</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-30789.4315</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-32202.1738</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-31786.0757</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-31654.45570000001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-31497.19570000001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-31888.35280000001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-31885.54280000001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-33165.38740000001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-33450.81480000001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-33239.0148</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-32982.70480000001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-31942.11300000001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-30662.88140000001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-33974.50030000001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-33222.72860000001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-33053.93890000001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-32194.63970000001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-31793.25460000001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-33209.21490000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-32501.16800000001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-32179.808</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-32951.61610000001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-33538.17710000001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-33477.41710000001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-33369.7971</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-33330.7171</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-33254.3471</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-36658.4238</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-38386.6725</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-38118.2091</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-38035.1391</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-37372.8106</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-37765.68079999999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-36955.82969999999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-37558.4658</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-36957.5513</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-37434.058</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-37080.5672</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-31492.2651</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-30988.5491</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-31558.5824</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-31169.0016</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-30850.91279999999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-30602.122</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-31121.8487</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-33705.9708</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-35176.18139999999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-35134.9414</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-35099.9014</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-37035.16299999999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-36738.33849999999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-36671.27849999999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-37079.1626</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-37878.76229999999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-37987.83719999999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-37633.52219999999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-38633.16829999999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-45055.64569999999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-44555.8386</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-44256.5589</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-44399.0223</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-45370.874</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-43682.84819999999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-43868.0209</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-44211.9661</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-43874.7523</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-43749.3999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-43897.9237</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-45538.8062</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-41983.7599</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-38954.3094</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-38651.2474</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-38817.1242</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-39429.3388</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-39299.5407</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-40240.1175</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-39547.2685</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-38694.5913</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-38989.7264</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-38438.6721</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-39375.4688</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-38879.19089999999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-39255.1577</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-38831.90029999999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-39156.59249999999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-38832.05419999999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-39178.89629999999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-38548.99689999999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-39229.99089999999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-38201.52679999999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-37496.15749999999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-38055.86039999999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-38841.49199999999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-33542.34889999999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-33628.67889999999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-33552.45889999999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-33666.33909999999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-33103.59649999999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-33743.72939999999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-33747.72939999999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-35372.68889999999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-34440.04769999999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-34589.81079999998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-35400.99299999999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-34377.80239999999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-34566.44419999998</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-34823.95649999999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-36499.72529999998</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-35877.74099999999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-35526.48509999999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-34689.28229999999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-34698.42959999999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-35207.70369999999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-31097.07679999999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-32411.07679999999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-34295.59149999999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-36491.61059999999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-35715.35369999999</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49786.29019999999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-52247.39969999999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-49934.87939999999</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-54393.63899999999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-52358.31809999999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-50793.67049999999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-48633.74909999999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-51664.21999999999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-53809.20769999999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-50978.81989999999</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-52271.00309999999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-53293.47179999999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-60950.4273</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-46554.60670000001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-41886.49420000001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50281.06940000001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-50525.57840000001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-50921.2023</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-50962.8723</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-67572.30470000001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-75537.59820000001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -22264,17 +22264,11 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22303,17 +22297,11 @@
         <v>-513135.76948979</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22342,17 +22330,11 @@
         <v>-503637.0852897899</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22385,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22418,17 +22396,11 @@
         <v>-514714.2052897899</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22457,17 +22429,11 @@
         <v>-521878.2408897899</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>220.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22496,17 +22462,11 @@
         <v>-510816.5910897899</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>219.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22535,17 +22495,11 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>220.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22574,17 +22528,11 @@
         <v>-520949.4560897899</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>219.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22621,7 +22569,7 @@
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L672" t="n">
@@ -23159,9 +23107,11 @@
         <v>-485808.6175897899</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23196,9 +23146,11 @@
         <v>-492767.1330897899</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23233,9 +23185,11 @@
         <v>-484071.6195897899</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>221</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23270,9 +23224,11 @@
         <v>-497545.6907897899</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>222.5</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24676,16 +24632,18 @@
         <v>-427608.9722897898</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L727" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
       <c r="M727" t="inlineStr"/>
     </row>
     <row r="728">
@@ -24711,11 +24669,15 @@
         <v>-406476.4927897898</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24744,11 +24706,15 @@
         <v>-450777.5670897898</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24777,11 +24743,15 @@
         <v>-459678.3017897898</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24810,11 +24780,15 @@
         <v>-468512.0620897898</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24843,11 +24817,15 @@
         <v>-475781.1811897898</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24876,11 +24854,15 @@
         <v>-468818.2262897898</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24909,11 +24891,15 @@
         <v>-477950.3659897898</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24946,7 +24932,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24975,11 +24965,15 @@
         <v>-495305.9284897898</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25008,11 +25002,15 @@
         <v>-489543.8876897898</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25045,7 +25043,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25078,7 +25080,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25111,7 +25117,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25144,7 +25154,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25177,7 +25191,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25210,7 +25228,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25243,7 +25265,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25276,7 +25302,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25309,7 +25339,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25342,7 +25376,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25375,7 +25413,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25408,7 +25450,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25441,7 +25487,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25474,7 +25524,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25507,7 +25561,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25540,7 +25598,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25573,7 +25635,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25606,7 +25672,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25639,7 +25709,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25672,7 +25746,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25701,11 +25779,15 @@
         <v>-485549.4274897898</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25738,7 +25820,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25767,11 +25853,15 @@
         <v>-469249.6663897898</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25804,7 +25894,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25837,7 +25931,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25870,7 +25968,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25903,7 +26005,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25936,7 +26042,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25969,7 +26079,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26002,7 +26116,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26035,7 +26153,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26068,7 +26190,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26101,7 +26227,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26134,7 +26264,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26167,7 +26301,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26200,7 +26338,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26233,7 +26375,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26266,7 +26412,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26299,7 +26449,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26332,7 +26486,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26365,7 +26523,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26398,7 +26560,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26431,7 +26597,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26464,7 +26634,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26497,7 +26671,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26530,7 +26708,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26563,7 +26745,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26596,7 +26782,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26629,7 +26819,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26662,7 +26856,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26695,7 +26893,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26728,7 +26930,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26761,7 +26967,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26794,7 +27004,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26827,7 +27041,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26860,7 +27078,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26893,7 +27115,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26926,7 +27152,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26959,7 +27189,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26992,7 +27226,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27025,7 +27263,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27058,7 +27300,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27091,7 +27337,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27124,7 +27374,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27157,7 +27411,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27190,7 +27448,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27223,7 +27485,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27256,7 +27522,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27289,7 +27559,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27322,7 +27596,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27355,7 +27633,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27388,7 +27670,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27421,7 +27707,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27454,7 +27744,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27487,7 +27781,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27520,7 +27818,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27553,7 +27855,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27586,7 +27892,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27619,7 +27929,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27652,7 +27966,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27685,7 +28003,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27718,7 +28040,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27751,7 +28077,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27784,7 +28114,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27817,7 +28151,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27850,7 +28188,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27883,7 +28225,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27916,7 +28262,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27949,7 +28299,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27982,7 +28336,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28015,7 +28373,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28048,7 +28410,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28081,7 +28447,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28114,7 +28484,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28147,7 +28521,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28180,7 +28558,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28213,7 +28595,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28246,7 +28632,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28279,7 +28669,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28312,7 +28706,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28345,7 +28743,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28378,7 +28780,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28411,7 +28817,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28444,7 +28854,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28477,7 +28891,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28510,7 +28928,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28543,7 +28965,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28576,7 +29002,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28609,7 +29039,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28642,7 +29076,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28675,7 +29113,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28708,7 +29150,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28741,7 +29187,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28774,7 +29224,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28807,7 +29261,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28840,7 +29298,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28873,7 +29335,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28906,7 +29372,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28939,7 +29409,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28972,7 +29446,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29005,7 +29483,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29038,7 +29520,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29071,7 +29557,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29104,7 +29594,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29137,7 +29631,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29170,7 +29668,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29203,7 +29705,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29236,7 +29742,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29269,7 +29779,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29302,7 +29816,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29335,7 +29853,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29368,7 +29890,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29401,7 +29927,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29434,7 +29964,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29467,7 +30001,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29500,7 +30038,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29533,7 +30075,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29566,7 +30112,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29599,7 +30149,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29632,7 +30186,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29665,7 +30223,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29698,7 +30260,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29731,7 +30297,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29764,7 +30334,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29797,7 +30371,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29830,7 +30408,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29863,7 +30445,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29896,7 +30482,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29929,7 +30519,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29962,7 +30556,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29995,7 +30593,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30028,7 +30630,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30061,7 +30667,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30094,7 +30704,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30127,7 +30741,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30160,7 +30778,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30193,7 +30815,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30226,7 +30852,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30259,7 +30889,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30292,7 +30926,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30325,7 +30963,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30358,7 +31000,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30391,7 +31037,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30424,7 +31074,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30457,7 +31111,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30490,7 +31148,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30523,7 +31185,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30556,7 +31222,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30589,7 +31259,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30622,7 +31296,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30655,7 +31333,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30688,7 +31370,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30721,7 +31407,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30754,7 +31444,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30787,7 +31481,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30820,7 +31518,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30853,7 +31555,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30886,7 +31592,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30919,7 +31629,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30952,7 +31666,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30985,7 +31703,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31018,7 +31740,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31051,7 +31777,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31084,7 +31814,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31117,7 +31851,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31150,7 +31888,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31183,7 +31925,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31216,7 +31962,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31249,7 +31999,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31282,7 +32036,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31315,7 +32073,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31348,7 +32110,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31381,7 +32147,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31414,7 +32184,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31447,7 +32221,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31480,7 +32258,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31513,7 +32295,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31546,7 +32332,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31579,7 +32369,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31612,7 +32406,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31645,7 +32443,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31678,7 +32480,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31711,7 +32517,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31744,7 +32554,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31777,7 +32591,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31810,7 +32628,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31843,7 +32665,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31876,7 +32702,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31909,7 +32739,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31942,7 +32776,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31975,7 +32813,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32008,7 +32850,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32041,7 +32887,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32074,7 +32924,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32107,7 +32961,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32140,7 +32998,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32173,7 +33035,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32206,7 +33072,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32239,7 +33109,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32272,7 +33146,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32305,7 +33183,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32338,7 +33220,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32371,7 +33257,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32404,7 +33294,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32437,7 +33331,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32470,7 +33368,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32503,7 +33405,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32536,7 +33442,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32569,7 +33479,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32602,7 +33516,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32635,7 +33553,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32668,7 +33590,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32701,7 +33627,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32734,7 +33664,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32767,7 +33701,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32800,7 +33738,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32833,7 +33775,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32866,7 +33812,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32899,7 +33849,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32932,7 +33886,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32965,7 +33923,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32998,7 +33960,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33031,7 +33997,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33064,7 +34034,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33097,7 +34071,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33130,7 +34108,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33163,7 +34145,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33196,7 +34182,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33229,7 +34219,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33262,7 +34256,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33295,7 +34293,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33328,7 +34330,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33361,7 +34367,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33394,7 +34404,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33427,7 +34441,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33460,7 +34478,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33493,7 +34515,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33526,7 +34552,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33559,7 +34589,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33592,7 +34626,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33625,7 +34663,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33658,7 +34700,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33691,7 +34737,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33724,7 +34774,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33757,7 +34811,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33790,7 +34848,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33823,7 +34885,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33856,7 +34922,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33889,7 +34959,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33922,7 +34996,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33955,7 +35033,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33988,7 +35070,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34021,7 +35107,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34054,7 +35144,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34087,7 +35181,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34120,7 +35218,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34153,7 +35255,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34186,7 +35292,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34219,7 +35329,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34252,7 +35366,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34285,7 +35403,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34318,7 +35440,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34351,7 +35477,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34384,7 +35514,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34417,7 +35551,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34450,7 +35588,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34483,7 +35625,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34516,7 +35662,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34549,7 +35699,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34582,7 +35736,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34615,7 +35773,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34648,7 +35810,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34681,7 +35847,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34714,7 +35884,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34747,7 +35921,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34780,7 +35958,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34813,7 +35995,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34846,7 +36032,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34879,7 +36069,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34912,7 +36106,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34945,7 +36143,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34978,7 +36180,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35011,7 +36217,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35044,7 +36254,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35077,7 +36291,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35110,7 +36328,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35143,7 +36365,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35176,7 +36402,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35209,7 +36439,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35242,7 +36476,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35275,7 +36513,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35308,7 +36550,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35341,7 +36587,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35374,7 +36624,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35407,7 +36661,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35440,7 +36698,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35473,7 +36735,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35506,7 +36772,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35539,7 +36809,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35572,7 +36846,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35605,7 +36883,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35638,7 +36920,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35671,7 +36957,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35704,7 +36994,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35737,7 +37031,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35770,7 +37068,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35803,7 +37105,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35836,7 +37142,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35869,7 +37179,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35902,7 +37216,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35935,7 +37253,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35968,7 +37290,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36001,7 +37327,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36034,7 +37364,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36067,7 +37401,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36100,7 +37438,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36133,7 +37475,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36166,7 +37512,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36199,7 +37549,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36232,7 +37586,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36265,7 +37623,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36298,7 +37660,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36331,7 +37697,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36364,7 +37734,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36397,7 +37771,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36430,7 +37808,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36463,7 +37845,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36496,7 +37882,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36529,7 +37919,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36562,7 +37956,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36595,7 +37993,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
